--- a/biology/Médecine/Jens_Einar_Meulengracht/Jens_Einar_Meulengracht.xlsx
+++ b/biology/Médecine/Jens_Einar_Meulengracht/Jens_Einar_Meulengracht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jens Einar Meulengracht (né le 7 avril 1887 à Assens (Danemark) et mort le 26 décembre 1976 à Hellerup)[1] est un médecin danois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jens Einar Meulengracht (né le 7 avril 1887 à Assens (Danemark) et mort le 26 décembre 1976 à Hellerup) est un médecin danois.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Rasmus Meulengracht, ingénieur civil, et de Maria Mortensen[1], il étudie la médecine à l'Université de Copenhague et écrit sa thèse en 1912.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Rasmus Meulengracht, ingénieur civil, et de Maria Mortensen, il étudie la médecine à l'Université de Copenhague et écrit sa thèse en 1912.
 Il travaille d'abord à l'Institut pathologique de l'hôpital Bispebjerg (en) de l'Université de Copenhague, devient médecin chef à la clinique universitaire dans le service de Knud Helge Faber (d) (1862-1956) et dans le département médical de l'hôpital Bispebjerg dans le service de Victor Scheel (d) (1869-1923).
 En 1918, il devient professeur de médecine interne. À partir de  1924, il est directeur de la clinique médicale à l'hôpital Bispebjerg et professeur de médecine interne à l'Université de Copenhague.
 Il a particulièrement étudié les maladies du foie et les troubles du métabolisme de la bilirubine et décrit la maladie de Gilbert[Note 1].
-Il a également étudié la pseudo-polyarthrite rhizomélique (connue également comme « maladie de Holst-Meulengracht »)[2].
-En 1934, il met au point des régimes spéciaux appelés « régimes Meulengracht » pour le traitement des saignements gastro-intestinaux, tels que l'hématémèse et les melæna[3].
+Il a également étudié la pseudo-polyarthrite rhizomélique (connue également comme « maladie de Holst-Meulengracht »).
+En 1934, il met au point des régimes spéciaux appelés « régimes Meulengracht » pour le traitement des saignements gastro-intestinaux, tels que l'hématémèse et les melæna.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(da) Jens Einar Meulengracht, Om Gastritis polyposa, 1913, 14 p. (lire en ligne).
 (da) Jens Einar Meulengracht, Erfaringer og Bemærkninger om Adrenalinbehandling ved Asthma bronchiale, 1913, 18 p. (lire en ligne).
